--- a/faq.xlsx
+++ b/faq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DEDED4-89A8-4CB7-927B-4E93427621F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294BD33-BCE7-4780-A7C0-0801CF63C2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCD76B31-79E4-44C8-9C40-53EAB4412181}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="777">
   <si>
     <t>Categorie</t>
   </si>
@@ -18376,13 +18389,62 @@
       </rPr>
       <t xml:space="preserve"> om het proces te voltooien.</t>
     </r>
+  </si>
+  <si>
+    <t>Exact Online (Module: Bankkoppeling)</t>
+  </si>
+  <si>
+    <t>Het koppelen van een bank vanuit Exact Online</t>
+  </si>
+  <si>
+    <t>Bankkoppeling</t>
+  </si>
+  <si>
+    <t>Je bank aan Exact Online koppelen
+Je kunt een koppeling maken tussen je bank en Exact Online om automatisch elektronische bankbestanden uit te wisselen, zoals afschriften, betalingsbestanden of incassobestanden. Dankzij deze koppeling hoef je bankbestanden niet meer handmatig te importeren en kun je eventuele onzorgvuldigheden voorkomen.
+Om deze koppeling in te stellen, kun je een PSD2- of een niet-PSD2-bankkoppeling gebruiken. We raden aan om PSD2 te gebruiken om betalingen en transacties sneller en veiliger te verwerken.
+Lees meer over Exact Online koppelen =HYPERLINK("https://www.exact.com/nl/producten/bankkoppelingen#mogelijkheden") met je bank. Rabobank biedt zowel de PSD2-bankkoppeling van Exact aan als hun eigen Rabo BoekhoudKoppeling. Lees meer over kiezen tussen de Exact PSD2-koppeling voor Rabobank of de Rabo BoekhoudKoppeling.
+PSD2-bankkoppeling
+De PSD2 (Payment Services Directive 2) is een wet die betaaldiensten in de EU regelt. Deze wet maakt meer gereguleerde en veiligere betaaldiensten mogelijk. Nog een voordeel van een PSD2-koppeling is dat je transacties automatisch vier keer per dag worden bijgewerkt in Exact Online. Daarnaast kun je ook op elk moment handmatig je nieuwe transacties inkijken.
+De banken die PSD2 ondersteunen zijn ABN AMRO, ASN Bank, Bunq, ING, Knab, Rabobank, RegioBank, SNS Bank, Triodos Bank en Van Lanschot.
+Wil je meer te weten komen over de PSD2-bankkoppeling, wat het voor jou betekent en hoe je het gebruikt? Lees dan verder over een PSD2-koppeling instellen.
+Bankkoppeling (geen PSD2)
+Je kunt ook Exact Online koppelen met een niet-PSD2-bankkoppeling. ABN AMRO, ING, Knab en Rabobank bieden deze optie aan. Als je kiest voor een niet-PSD2-bankkoppeling, worden je banktransacties eenmaal per dag bijgewerkt in Exact Online.
+Meer informatie over de scanservice en Peppol:
+Een koppeling met ABN AMRO instellen om automatisch bankafschriften te ontvangen
+Een koppeling met de ING instellen om betalingen te verrichten en bankafschriften in je administratie te importeren
+Een koppeling met Knab instellen om je bankafschriften automatisch te importeren
+Rabo BoekhoudKoppeling
+Met Rabobank kun je een niet-PSD2-bankkoppeling instellen door middel van de Rabo BoekhoudKoppeling. Lees meer over een Rabo BoekhoudKoppeling voor Rabobank instellen.</t>
+  </si>
+  <si>
+    <t>Kan ik tegelijkertijd in meerdere boekjaren werken?</t>
+  </si>
+  <si>
+    <t>Hoe maak ik een nieuw boekjaar aan?</t>
+  </si>
+  <si>
+    <t>Jaarafsluiting
+Kan ik tegelijkertijd in meerdere boekjaren werken?
+Ja. Je kunt tegelijkertijd in meerdere boekjaren werken. Als je een boeking aanmaakt, kun je selecteren in welk boekjaar je deze wilt boeken.
+Hoe maak ik een nieuw boekjaar aan?
+Exact Online maakt automatisch een nieuw boekjaar voor je aan. Lees meer over het nieuwe boekjaar accepteren, bewerken of afkeuren:
+=HYPERLINK("https://www.exact.com/nl/support/documents/NEW-YEAR","Lees meer over het nieuwe boekjaar accepteren, bewerken of afkeuren")
+Je kunt ook handmatig een boekjaar aanmaken.
+Hoe voer ik de beginbalans in?
+Ga naar Financieel &gt; Boekingen en grootboekrekeningen &gt; Boekingen &gt; Aanmaken en selecteer het tabblad Beginbalans. 
+=HYPERLINK("https://www.exact.com/nl/support/documents/BEGINBALANS","Lees meer over een beginbalans invoeren")
+Hoe kan ik boekjaren samenvoegen?
+Ga naar Administratienaam &gt; Stamgegevens &gt; Financieel &gt; Periode-datumtabel en klik op het jaar dat je wilt bewerken. Klik op Bewerken en maak de nodige wijzigingen. Klik op Opslaan.
+Zorg ervoor dat je ook het boekjaar bijwerkt in de boekingen.
+=HYPERLINK("https://www.exact.com/nl/support/documents/BOEKJAREN-SAMENVOEGEN","Lees meer over een boekjaar openen, samenvoegen of verwijderen en boekingsregels met een periode-datumcontrole controleren en bijwerken")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18524,6 +18586,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -18874,22 +18949,34 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -19267,34 +19354,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36CD669-9803-4894-B590-731D7F8B6FBE}">
-  <dimension ref="A1:G320"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="38" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -20556,7 +20646,7 @@
       <c r="E56" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="5" t="s">
         <v>297</v>
       </c>
     </row>
@@ -20576,7 +20666,7 @@
       <c r="E57" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -21041,7 +21131,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -22716,7 +22806,7 @@
       <c r="E164" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" s="5" t="s">
         <v>192</v>
       </c>
     </row>
@@ -22736,7 +22826,7 @@
       <c r="E165" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G165" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -23619,7 +23709,7 @@
       <c r="F209" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G209" s="3" t="s">
+      <c r="G209" s="5" t="s">
         <v>297</v>
       </c>
     </row>
@@ -23642,7 +23732,7 @@
       <c r="F210" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G210" s="3" t="s">
+      <c r="G210" s="5" t="s">
         <v>195</v>
       </c>
     </row>
@@ -26175,6 +26265,82 @@
       <c r="G320" s="4" t="s">
         <v>769</v>
       </c>
+    </row>
+    <row r="321" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G322" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G323" s="7"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G324" s="8"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G325" s="9"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G326" s="9"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G327" s="8"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G328" s="9"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G329" s="8"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G330" s="7"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G331" s="7"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G332" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{E36CD669-9803-4894-B590-731D7F8B6FBE}"/>

--- a/faq.xlsx
+++ b/faq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294BD33-BCE7-4780-A7C0-0801CF63C2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B022EE-FA33-4F4D-9A3C-1CA9D839CB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCD76B31-79E4-44C8-9C40-53EAB4412181}"/>
   </bookViews>
@@ -18,20 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -47,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="774">
   <si>
     <t>Categorie</t>
   </si>
@@ -18389,21 +18376,12 @@
       </rPr>
       <t xml:space="preserve"> om het proces te voltooien.</t>
     </r>
-  </si>
-  <si>
-    <t>Exact Online (Module: Bankkoppeling)</t>
-  </si>
-  <si>
-    <t>Het koppelen van een bank vanuit Exact Online</t>
-  </si>
-  <si>
-    <t>Bankkoppeling</t>
   </si>
   <si>
     <t>Je bank aan Exact Online koppelen
 Je kunt een koppeling maken tussen je bank en Exact Online om automatisch elektronische bankbestanden uit te wisselen, zoals afschriften, betalingsbestanden of incassobestanden. Dankzij deze koppeling hoef je bankbestanden niet meer handmatig te importeren en kun je eventuele onzorgvuldigheden voorkomen.
 Om deze koppeling in te stellen, kun je een PSD2- of een niet-PSD2-bankkoppeling gebruiken. We raden aan om PSD2 te gebruiken om betalingen en transacties sneller en veiliger te verwerken.
-Lees meer over Exact Online koppelen =HYPERLINK("https://www.exact.com/nl/producten/bankkoppelingen#mogelijkheden") met je bank. Rabobank biedt zowel de PSD2-bankkoppeling van Exact aan als hun eigen Rabo BoekhoudKoppeling. Lees meer over kiezen tussen de Exact PSD2-koppeling voor Rabobank of de Rabo BoekhoudKoppeling.
+Lees meer over Exact Online koppelen met je bank. Rabobank biedt zowel de PSD2-bankkoppeling van Exact aan als hun eigen Rabo BoekhoudKoppeling. Lees meer over kiezen tussen de Exact PSD2-koppeling voor Rabobank of de Rabo BoekhoudKoppeling.
 PSD2-bankkoppeling
 De PSD2 (Payment Services Directive 2) is een wet die betaaldiensten in de EU regelt. Deze wet maakt meer gereguleerde en veiligere betaaldiensten mogelijk. Nog een voordeel van een PSD2-koppeling is dat je transacties automatisch vier keer per dag worden bijgewerkt in Exact Online. Daarnaast kun je ook op elk moment handmatig je nieuwe transacties inkijken.
 De banken die PSD2 ondersteunen zijn ABN AMRO, ASN Bank, Bunq, ING, Knab, Rabobank, RegioBank, SNS Bank, Triodos Bank en Van Lanschot.
@@ -18418,33 +18396,20 @@
 Met Rabobank kun je een niet-PSD2-bankkoppeling instellen door middel van de Rabo BoekhoudKoppeling. Lees meer over een Rabo BoekhoudKoppeling voor Rabobank instellen.</t>
   </si>
   <si>
-    <t>Kan ik tegelijkertijd in meerdere boekjaren werken?</t>
-  </si>
-  <si>
-    <t>Hoe maak ik een nieuw boekjaar aan?</t>
-  </si>
-  <si>
-    <t>Jaarafsluiting
-Kan ik tegelijkertijd in meerdere boekjaren werken?
-Ja. Je kunt tegelijkertijd in meerdere boekjaren werken. Als je een boeking aanmaakt, kun je selecteren in welk boekjaar je deze wilt boeken.
-Hoe maak ik een nieuw boekjaar aan?
-Exact Online maakt automatisch een nieuw boekjaar voor je aan. Lees meer over het nieuwe boekjaar accepteren, bewerken of afkeuren:
-=HYPERLINK("https://www.exact.com/nl/support/documents/NEW-YEAR","Lees meer over het nieuwe boekjaar accepteren, bewerken of afkeuren")
-Je kunt ook handmatig een boekjaar aanmaken.
-Hoe voer ik de beginbalans in?
-Ga naar Financieel &gt; Boekingen en grootboekrekeningen &gt; Boekingen &gt; Aanmaken en selecteer het tabblad Beginbalans. 
-=HYPERLINK("https://www.exact.com/nl/support/documents/BEGINBALANS","Lees meer over een beginbalans invoeren")
-Hoe kan ik boekjaren samenvoegen?
-Ga naar Administratienaam &gt; Stamgegevens &gt; Financieel &gt; Periode-datumtabel en klik op het jaar dat je wilt bewerken. Klik op Bewerken en maak de nodige wijzigingen. Klik op Opslaan.
-Zorg ervoor dat je ook het boekjaar bijwerkt in de boekingen.
-=HYPERLINK("https://www.exact.com/nl/support/documents/BOEKJAREN-SAMENVOEGEN","Lees meer over een boekjaar openen, samenvoegen of verwijderen en boekingsregels met een periode-datumcontrole controleren en bijwerken")</t>
+    <t>Exact Online (Module: Bankkoppeling)</t>
+  </si>
+  <si>
+    <t>Het koppelen van een bank vanuit Exact Online</t>
+  </si>
+  <si>
+    <t>Bankkoppeling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18586,19 +18551,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -18949,34 +18901,31 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -19354,37 +19303,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36CD669-9803-4894-B590-731D7F8B6FBE}">
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="C321" sqref="C321"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="E321" sqref="E321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="38" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -20646,7 +20592,7 @@
       <c r="E56" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -20666,7 +20612,7 @@
       <c r="E57" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -21131,7 +21077,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -22806,7 +22752,7 @@
       <c r="E164" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G164" s="5" t="s">
+      <c r="G164" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -22826,7 +22772,7 @@
       <c r="E165" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="G165" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -23709,7 +23655,7 @@
       <c r="F209" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G209" s="5" t="s">
+      <c r="G209" s="3" t="s">
         <v>297</v>
       </c>
     </row>
@@ -23732,7 +23678,7 @@
       <c r="F210" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="G210" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -26267,80 +26213,27 @@
       </c>
     </row>
     <row r="321" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
+      <c r="A321" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="E321" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="G321" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="F321" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="G321" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D322" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="E322" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="F322" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G322" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G323" s="7"/>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G324" s="8"/>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G325" s="9"/>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G326" s="9"/>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G327" s="8"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G328" s="9"/>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G329" s="8"/>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G330" s="7"/>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G331" s="7"/>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G332" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{E36CD669-9803-4894-B590-731D7F8B6FBE}"/>
